--- a/IMS/App_Data/ItemSource.xlsx
+++ b/IMS/App_Data/ItemSource.xlsx
@@ -14,57 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
-  <si>
-    <t>病床使用率(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住院日目标值(天)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CD型病例比例(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>药品比例(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病历回收率(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感染发病率(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感染例次率(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用非限制级抗菌药物前病原学送检率(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用限制级抗菌药物前病原学送检率(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗手正确率（%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基药使用比例(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四级手术比例(%)</t>
-  </si>
-  <si>
-    <t>抗菌药物使用率(%)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>清洁手术切口甲级愈合率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,196 +28,160 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手术冰冻与石蜡诊断符合率（%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生化、免疫常规项目(工作日)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微生物常规项目(工作日)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病理报告书内容与格式书写合格率（%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时限符合率（%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POCT项目对比（%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>危急值报告及时性（%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医务人员手卫生依从率（%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医务人员洗手正确率（%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻醉相关死亡率（%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神经阻滞麻醉成功率（%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>并发症发生率：腰麻后头痛发生率（%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临检常规项目(分钟)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规检查结果报告(分钟)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临检常规项目(小时）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊诊疗检查报告(小时）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大型X线设备检查阳性率（%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CT检查阳性率（%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MRI检查阳性率（%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血管内导管相关血流感染发病率（%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼吸机相关肺炎发病率（%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导尿管相关泌尿系感染发病率（%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备完好率（%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>手术部位感染发病率</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（%）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>I类切口手术部位感染率</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（%）</t>
-    </r>
-  </si>
-  <si>
-    <t>使用特殊级抗菌药物前病原学送检率(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>康复治疗有效率(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抗菌药物使用强度(DDD)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年手术人数(人次)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入院人数(人次)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生化、免疫常规项目(小时)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手卫生依从率(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医学影像诊断与手术后符合率(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬膜外麻醉血管损伤操作发生率(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬膜外麻醉硬脊膜穿破发生率(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬膜外阻滞成功率(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有创性监测操作感染发生率(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有创性麻醉操作感染发生率(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>院感漏报率(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>院感漏报率(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住院患者康复功能评定率(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>椎管内麻醉神经并发症发生率(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>CT检查阳性率</t>
+  </si>
+  <si>
+    <t>CD型病例比例</t>
+  </si>
+  <si>
+    <t>I类切口手术部位感染率</t>
+  </si>
+  <si>
+    <t>MRI检查阳性率</t>
+  </si>
+  <si>
+    <t>POCT项目对比</t>
+  </si>
+  <si>
+    <t>并发症发生率：腰麻后头痛发生率</t>
+  </si>
+  <si>
+    <t>病床使用率</t>
+  </si>
+  <si>
+    <t>病理报告书内容与格式书写合格率</t>
+  </si>
+  <si>
+    <t>病历回收率</t>
+  </si>
+  <si>
+    <t>大型X线设备检查阳性率</t>
+  </si>
+  <si>
+    <t>导尿管相关泌尿系感染发病率</t>
+  </si>
+  <si>
+    <t>感染发病率</t>
+  </si>
+  <si>
+    <t>感染例次率</t>
+  </si>
+  <si>
+    <t>呼吸机相关肺炎发病率</t>
+  </si>
+  <si>
+    <t>基药使用比例</t>
+  </si>
+  <si>
+    <t>康复治疗有效率</t>
+  </si>
+  <si>
+    <t>抗菌药物使用率</t>
+  </si>
+  <si>
+    <t>麻醉相关死亡率</t>
+  </si>
+  <si>
+    <t>设备完好率</t>
+  </si>
+  <si>
+    <t>神经阻滞麻醉成功率</t>
+  </si>
+  <si>
+    <t>时限符合率</t>
+  </si>
+  <si>
+    <t>使用非限制级抗菌药物前病原学送检率</t>
+  </si>
+  <si>
+    <t>使用特殊级抗菌药物前病原学送检率</t>
+  </si>
+  <si>
+    <t>使用限制级抗菌药物前病原学送检率</t>
+  </si>
+  <si>
+    <t>手术冰冻与石蜡诊断符合率</t>
+  </si>
+  <si>
+    <t>手术部位感染发病率</t>
+  </si>
+  <si>
+    <t>手卫生依从率</t>
+  </si>
+  <si>
+    <t>四级手术比例</t>
+  </si>
+  <si>
+    <t>危急值报告及时性</t>
+  </si>
+  <si>
+    <t>洗手正确率</t>
+  </si>
+  <si>
+    <t>血管内导管相关血流感染发病率</t>
+  </si>
+  <si>
+    <t>药品比例</t>
+  </si>
+  <si>
+    <t>医务人员手卫生依从率</t>
+  </si>
+  <si>
+    <t>医务人员洗手正确率</t>
+  </si>
+  <si>
+    <t>医学影像诊断与手术后符合率</t>
+  </si>
+  <si>
+    <t>硬膜外麻醉血管损伤操作发生率</t>
+  </si>
+  <si>
+    <t>硬膜外麻醉硬脊膜穿破发生率</t>
+  </si>
+  <si>
+    <t>硬膜外阻滞成功率</t>
+  </si>
+  <si>
+    <t>有创性监测操作感染发生率</t>
+  </si>
+  <si>
+    <t>有创性麻醉操作感染发生率</t>
+  </si>
+  <si>
+    <t>院感漏报率</t>
+  </si>
+  <si>
+    <t>住院患者康复功能评定率</t>
+  </si>
+  <si>
+    <t>椎管内麻醉神经并发症发生率</t>
+  </si>
+  <si>
+    <t>抗菌药物使用强度</t>
+  </si>
+  <si>
+    <t>临检常规项目</t>
+  </si>
+  <si>
+    <t>年手术人数</t>
+  </si>
+  <si>
+    <t>入院人数</t>
+  </si>
+  <si>
+    <t>生化、免疫常规项目</t>
+  </si>
+  <si>
+    <t>常规检查结果报告</t>
+  </si>
+  <si>
+    <t>特殊诊疗检查报告</t>
+  </si>
+  <si>
+    <t>微生物常规项目</t>
+  </si>
+  <si>
+    <t>住院日目标值</t>
   </si>
 </sst>
 </file>
@@ -654,7 +568,7 @@
   <dimension ref="A1:A58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -664,292 +578,292 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
